--- a/public/template-citas.xlsx
+++ b/public/template-citas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\solicitudes-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7A7E1-BDE9-4FD1-B46A-E4B29BEE4CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD8DD8-DEAE-49A1-B75D-FCB60097FB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2145" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baja California" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Baja California'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
     <t>AGENDA DE CITAS 2025</t>
   </si>
   <si>
-    <t>ENTIDAD</t>
+    <t>Entidad</t>
   </si>
   <si>
     <t>O.S.</t>
@@ -82,10 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +92,21 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
@@ -117,31 +121,22 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006455"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4C19C"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -163,34 +158,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD4C19C"/>
+      <color rgb="FF006455"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -468,82 +456,83 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -561,9 +550,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>